--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp6-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp6-Bmpr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Bmp6</t>
+  </si>
+  <si>
+    <t>Bmpr1a</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Bmp6</t>
-  </si>
-  <si>
-    <t>Bmpr1a</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.651253000000001</v>
+        <v>3.835339</v>
       </c>
       <c r="H2">
-        <v>25.953759</v>
+        <v>11.506017</v>
       </c>
       <c r="I2">
-        <v>0.709322844564615</v>
+        <v>0.4358468215464834</v>
       </c>
       <c r="J2">
-        <v>0.7093228445646149</v>
+        <v>0.4358468215464834</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.122124666666667</v>
+        <v>4.889237666666667</v>
       </c>
       <c r="N2">
-        <v>15.366374</v>
+        <v>14.667713</v>
       </c>
       <c r="O2">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032918</v>
       </c>
       <c r="P2">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032917</v>
       </c>
       <c r="Q2">
-        <v>44.31279638887401</v>
+        <v>18.75188390323567</v>
       </c>
       <c r="R2">
-        <v>398.815167499866</v>
+        <v>168.766955129121</v>
       </c>
       <c r="S2">
-        <v>0.06802937953730159</v>
+        <v>0.0415358610826117</v>
       </c>
       <c r="T2">
-        <v>0.06802937953730158</v>
+        <v>0.04153586108261169</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.651253000000001</v>
+        <v>3.835339</v>
       </c>
       <c r="H3">
-        <v>25.953759</v>
+        <v>11.506017</v>
       </c>
       <c r="I3">
-        <v>0.709322844564615</v>
+        <v>0.4358468215464834</v>
       </c>
       <c r="J3">
-        <v>0.7093228445646149</v>
+        <v>0.4358468215464834</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>102.577454</v>
       </c>
       <c r="O3">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309815</v>
       </c>
       <c r="P3">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309812</v>
       </c>
       <c r="Q3">
-        <v>295.8078355499541</v>
+        <v>131.1397699489686</v>
       </c>
       <c r="R3">
-        <v>2662.270519949587</v>
+        <v>1180.257929540718</v>
       </c>
       <c r="S3">
-        <v>0.4541266892330029</v>
+        <v>0.2904776552112788</v>
       </c>
       <c r="T3">
-        <v>0.4541266892330028</v>
+        <v>0.2904776552112787</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,14 +649,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.651253000000001</v>
+        <v>3.835339</v>
       </c>
       <c r="H4">
-        <v>25.953759</v>
+        <v>11.506017</v>
       </c>
       <c r="I4">
-        <v>0.709322844564615</v>
+        <v>0.4358468215464834</v>
       </c>
       <c r="J4">
-        <v>0.7093228445646149</v>
+        <v>0.4358468215464834</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.556675</v>
+        <v>0.06428533333333333</v>
       </c>
       <c r="N4">
-        <v>1.670025</v>
+        <v>0.192856</v>
       </c>
       <c r="O4">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="P4">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="Q4">
-        <v>4.815936263775001</v>
+        <v>0.2465560460613333</v>
       </c>
       <c r="R4">
-        <v>43.34342637397501</v>
+        <v>2.219004414552</v>
       </c>
       <c r="S4">
-        <v>0.007393466055282925</v>
+        <v>0.0005461274041118858</v>
       </c>
       <c r="T4">
-        <v>0.007393466055282924</v>
+        <v>0.0005461274041118856</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.651253000000001</v>
+        <v>3.835339</v>
       </c>
       <c r="H5">
-        <v>25.953759</v>
+        <v>11.506017</v>
       </c>
       <c r="I5">
-        <v>0.709322844564615</v>
+        <v>0.4358468215464834</v>
       </c>
       <c r="J5">
-        <v>0.7093228445646149</v>
+        <v>0.4358468215464834</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.054774</v>
+        <v>12.052907</v>
       </c>
       <c r="N5">
-        <v>36.164322</v>
+        <v>36.158721</v>
       </c>
       <c r="O5">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="P5">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="Q5">
-        <v>104.288899731822</v>
+        <v>46.226984280473</v>
       </c>
       <c r="R5">
-        <v>938.600097586398</v>
+        <v>416.042858524257</v>
       </c>
       <c r="S5">
-        <v>0.1601052002930025</v>
+        <v>0.1023938505192264</v>
       </c>
       <c r="T5">
-        <v>0.1601052002930024</v>
+        <v>0.1023938505192264</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.651253000000001</v>
+        <v>3.835339</v>
       </c>
       <c r="H6">
-        <v>25.953759</v>
+        <v>11.506017</v>
       </c>
       <c r="I6">
-        <v>0.709322844564615</v>
+        <v>0.4358468215464834</v>
       </c>
       <c r="J6">
-        <v>0.7093228445646149</v>
+        <v>0.4358468215464834</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.480867666666667</v>
+        <v>0.1051546666666667</v>
       </c>
       <c r="N6">
-        <v>4.442603</v>
+        <v>0.315464</v>
       </c>
       <c r="O6">
-        <v>0.02772800791168296</v>
+        <v>0.002049635984690702</v>
       </c>
       <c r="P6">
-        <v>0.02772800791168296</v>
+        <v>0.002049635984690701</v>
       </c>
       <c r="Q6">
-        <v>12.811360843853</v>
+        <v>0.4033037940986667</v>
       </c>
       <c r="R6">
-        <v>115.302247594677</v>
+        <v>3.629734146888</v>
       </c>
       <c r="S6">
-        <v>0.01966810944602511</v>
+        <v>0.000893327329254739</v>
       </c>
       <c r="T6">
-        <v>0.01966810944602511</v>
+        <v>0.0008933273292547388</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>5.232408</v>
       </c>
       <c r="I7">
-        <v>0.143003043469836</v>
+        <v>0.1982031137129723</v>
       </c>
       <c r="J7">
-        <v>0.143003043469836</v>
+        <v>0.1982031137129723</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.122124666666667</v>
+        <v>4.889237666666667</v>
       </c>
       <c r="N7">
-        <v>15.366374</v>
+        <v>14.667713</v>
       </c>
       <c r="O7">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032918</v>
       </c>
       <c r="P7">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032917</v>
       </c>
       <c r="Q7">
-        <v>8.933682027621334</v>
+        <v>8.527495426989335</v>
       </c>
       <c r="R7">
-        <v>80.403138248592</v>
+        <v>76.74745884290401</v>
       </c>
       <c r="S7">
-        <v>0.0137150641541371</v>
+        <v>0.0188886016608133</v>
       </c>
       <c r="T7">
-        <v>0.0137150641541371</v>
+        <v>0.0188886016608133</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>5.232408</v>
       </c>
       <c r="I8">
-        <v>0.143003043469836</v>
+        <v>0.1982031137129723</v>
       </c>
       <c r="J8">
-        <v>0.143003043469836</v>
+        <v>0.1982031137129723</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>102.577454</v>
       </c>
       <c r="O8">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309815</v>
       </c>
       <c r="P8">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309812</v>
       </c>
       <c r="Q8">
-        <v>59.63634343658134</v>
+        <v>59.63634343658133</v>
       </c>
       <c r="R8">
-        <v>536.7270909292321</v>
+        <v>536.727090929232</v>
       </c>
       <c r="S8">
-        <v>0.09155421847587772</v>
+        <v>0.1320958944306042</v>
       </c>
       <c r="T8">
-        <v>0.09155421847587772</v>
+        <v>0.1320958944306041</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,40 +980,40 @@
         <v>5.232408</v>
       </c>
       <c r="I9">
-        <v>0.143003043469836</v>
+        <v>0.1982031137129723</v>
       </c>
       <c r="J9">
-        <v>0.143003043469836</v>
+        <v>0.1982031137129723</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.556675</v>
+        <v>0.06428533333333333</v>
       </c>
       <c r="N9">
-        <v>1.670025</v>
+        <v>0.192856</v>
       </c>
       <c r="O9">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="P9">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="Q9">
-        <v>0.9709169078</v>
+        <v>0.1121223641386667</v>
       </c>
       <c r="R9">
-        <v>8.738252170199999</v>
+        <v>1.009101277248</v>
       </c>
       <c r="S9">
-        <v>0.001490559842810855</v>
+        <v>0.0002483536568991915</v>
       </c>
       <c r="T9">
-        <v>0.001490559842810855</v>
+        <v>0.0002483536568991914</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1042,10 +1042,10 @@
         <v>5.232408</v>
       </c>
       <c r="I10">
-        <v>0.143003043469836</v>
+        <v>0.1982031137129723</v>
       </c>
       <c r="J10">
-        <v>0.143003043469836</v>
+        <v>0.1982031137129723</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.054774</v>
+        <v>12.052907</v>
       </c>
       <c r="N10">
-        <v>36.164322</v>
+        <v>36.158721</v>
       </c>
       <c r="O10">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="P10">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="Q10">
-        <v>21.025165305264</v>
+        <v>21.021909003352</v>
       </c>
       <c r="R10">
-        <v>189.226487747376</v>
+        <v>189.197181030168</v>
       </c>
       <c r="S10">
-        <v>0.03227801147628397</v>
+        <v>0.04656401973051183</v>
       </c>
       <c r="T10">
-        <v>0.03227801147628397</v>
+        <v>0.04656401973051183</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,40 +1104,40 @@
         <v>5.232408</v>
       </c>
       <c r="I11">
-        <v>0.143003043469836</v>
+        <v>0.1982031137129723</v>
       </c>
       <c r="J11">
-        <v>0.143003043469836</v>
+        <v>0.1982031137129723</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>1.480867666666667</v>
+        <v>0.1051546666666667</v>
       </c>
       <c r="N11">
-        <v>4.442603</v>
+        <v>0.315464</v>
       </c>
       <c r="O11">
-        <v>0.02772800791168296</v>
+        <v>0.002049635984690702</v>
       </c>
       <c r="P11">
-        <v>0.02772800791168296</v>
+        <v>0.002049635984690701</v>
       </c>
       <c r="Q11">
-        <v>2.582834608669333</v>
+        <v>0.1834040397013334</v>
       </c>
       <c r="R11">
-        <v>23.245511478024</v>
+        <v>1.650636357312</v>
       </c>
       <c r="S11">
-        <v>0.003965189520726355</v>
+        <v>0.0004062442341438511</v>
       </c>
       <c r="T11">
-        <v>0.003965189520726355</v>
+        <v>0.000406244234143851</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.796801</v>
+        <v>3.220265666666667</v>
       </c>
       <c r="H12">
-        <v>5.390403</v>
+        <v>9.660797000000001</v>
       </c>
       <c r="I12">
-        <v>0.1473210870652546</v>
+        <v>0.3659500647405443</v>
       </c>
       <c r="J12">
-        <v>0.1473210870652545</v>
+        <v>0.3659500647405443</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.122124666666667</v>
+        <v>4.889237666666667</v>
       </c>
       <c r="N12">
-        <v>15.366374</v>
+        <v>14.667713</v>
       </c>
       <c r="O12">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032918</v>
       </c>
       <c r="P12">
-        <v>0.09590749833957241</v>
+        <v>0.09529921759032917</v>
       </c>
       <c r="Q12">
-        <v>9.203438723191335</v>
+        <v>15.74464419414011</v>
       </c>
       <c r="R12">
-        <v>82.830948508722</v>
+        <v>141.701797747261</v>
       </c>
       <c r="S12">
-        <v>0.0141291969130949</v>
+        <v>0.03487475484690418</v>
       </c>
       <c r="T12">
-        <v>0.0141291969130949</v>
+        <v>0.03487475484690417</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.796801</v>
+        <v>3.220265666666667</v>
       </c>
       <c r="H13">
-        <v>5.390403</v>
+        <v>9.660797000000001</v>
       </c>
       <c r="I13">
-        <v>0.1473210870652546</v>
+        <v>0.3659500647405443</v>
       </c>
       <c r="J13">
-        <v>0.1473210870652545</v>
+        <v>0.3659500647405443</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>102.577454</v>
       </c>
       <c r="O13">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309815</v>
       </c>
       <c r="P13">
-        <v>0.6402256641145507</v>
+        <v>0.6664673019309812</v>
       </c>
       <c r="Q13">
-        <v>61.43709064155135</v>
+        <v>110.1088844300931</v>
       </c>
       <c r="R13">
-        <v>552.9338157739621</v>
+        <v>990.979959870838</v>
       </c>
       <c r="S13">
-        <v>0.09431874080443016</v>
+        <v>0.2438937522890985</v>
       </c>
       <c r="T13">
-        <v>0.09431874080443013</v>
+        <v>0.2438937522890984</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,14 +1269,14 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
       <c r="E14">
         <v>3</v>
       </c>
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.796801</v>
+        <v>3.220265666666667</v>
       </c>
       <c r="H14">
-        <v>5.390403</v>
+        <v>9.660797000000001</v>
       </c>
       <c r="I14">
-        <v>0.1473210870652546</v>
+        <v>0.3659500647405443</v>
       </c>
       <c r="J14">
-        <v>0.1473210870652545</v>
+        <v>0.3659500647405443</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.556675</v>
+        <v>0.06428533333333333</v>
       </c>
       <c r="N14">
-        <v>1.670025</v>
+        <v>0.192856</v>
       </c>
       <c r="O14">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="P14">
-        <v>0.01042327356567948</v>
+        <v>0.001253026010776221</v>
       </c>
       <c r="Q14">
-        <v>1.000234196675</v>
+        <v>0.2070158518035556</v>
       </c>
       <c r="R14">
-        <v>9.002107770075</v>
+        <v>1.863142666232</v>
       </c>
       <c r="S14">
-        <v>0.001535567992474433</v>
+        <v>0.0004585449497651442</v>
       </c>
       <c r="T14">
-        <v>0.001535567992474433</v>
+        <v>0.000458544949765144</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.796801</v>
+        <v>3.220265666666667</v>
       </c>
       <c r="H15">
-        <v>5.390403</v>
+        <v>9.660797000000001</v>
       </c>
       <c r="I15">
-        <v>0.1473210870652546</v>
+        <v>0.3659500647405443</v>
       </c>
       <c r="J15">
-        <v>0.1473210870652545</v>
+        <v>0.3659500647405443</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.054774</v>
+        <v>12.052907</v>
       </c>
       <c r="N15">
-        <v>36.164322</v>
+        <v>36.158721</v>
       </c>
       <c r="O15">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="P15">
-        <v>0.2257155560685144</v>
+        <v>0.2349308184832226</v>
       </c>
       <c r="Q15">
-        <v>21.660029977974</v>
+        <v>38.81356259562633</v>
       </c>
       <c r="R15">
-        <v>194.940269801766</v>
+        <v>349.322063360637</v>
       </c>
       <c r="S15">
-        <v>0.03325266108755196</v>
+        <v>0.08597294823348436</v>
       </c>
       <c r="T15">
-        <v>0.03325266108755195</v>
+        <v>0.08597294823348436</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,356 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.796801</v>
+        <v>3.220265666666667</v>
       </c>
       <c r="H16">
-        <v>5.390403</v>
+        <v>9.660797000000001</v>
       </c>
       <c r="I16">
-        <v>0.1473210870652546</v>
+        <v>0.3659500647405443</v>
       </c>
       <c r="J16">
-        <v>0.1473210870652545</v>
+        <v>0.3659500647405443</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>1.480867666666667</v>
+        <v>0.1051546666666667</v>
       </c>
       <c r="N16">
-        <v>4.442603</v>
+        <v>0.315464</v>
       </c>
       <c r="O16">
-        <v>0.02772800791168296</v>
+        <v>0.002049635984690702</v>
       </c>
       <c r="P16">
-        <v>0.02772800791168296</v>
+        <v>0.002049635984690701</v>
       </c>
       <c r="Q16">
-        <v>2.660824504334334</v>
+        <v>0.3386259627564445</v>
       </c>
       <c r="R16">
-        <v>23.947420539009</v>
+        <v>3.047633664808</v>
       </c>
       <c r="S16">
-        <v>0.004084920267703114</v>
+        <v>0.0007500644212921114</v>
       </c>
       <c r="T16">
-        <v>0.004084920267703112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.004305666666666666</v>
-      </c>
-      <c r="H17">
-        <v>0.012917</v>
-      </c>
-      <c r="I17">
-        <v>0.0003530249002944479</v>
-      </c>
-      <c r="J17">
-        <v>0.0003530249002944478</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>5.122124666666667</v>
-      </c>
-      <c r="N17">
-        <v>15.366374</v>
-      </c>
-      <c r="O17">
-        <v>0.09590749833957241</v>
-      </c>
-      <c r="P17">
-        <v>0.09590749833957241</v>
-      </c>
-      <c r="Q17">
-        <v>0.02205416143977778</v>
-      </c>
-      <c r="R17">
-        <v>0.198487452958</v>
-      </c>
-      <c r="S17">
-        <v>3.385773503881748E-05</v>
-      </c>
-      <c r="T17">
-        <v>3.385773503881747E-05</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.004305666666666666</v>
-      </c>
-      <c r="H18">
-        <v>0.012917</v>
-      </c>
-      <c r="I18">
-        <v>0.0003530249002944479</v>
-      </c>
-      <c r="J18">
-        <v>0.0003530249002944478</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>34.19248466666667</v>
-      </c>
-      <c r="N18">
-        <v>102.577454</v>
-      </c>
-      <c r="O18">
-        <v>0.6402256641145507</v>
-      </c>
-      <c r="P18">
-        <v>0.6402256641145507</v>
-      </c>
-      <c r="Q18">
-        <v>0.1472214414797778</v>
-      </c>
-      <c r="R18">
-        <v>1.324992973318</v>
-      </c>
-      <c r="S18">
-        <v>0.0002260156012399859</v>
-      </c>
-      <c r="T18">
-        <v>0.0002260156012399859</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.004305666666666666</v>
-      </c>
-      <c r="H19">
-        <v>0.012917</v>
-      </c>
-      <c r="I19">
-        <v>0.0003530249002944479</v>
-      </c>
-      <c r="J19">
-        <v>0.0003530249002944478</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M19">
-        <v>0.556675</v>
-      </c>
-      <c r="N19">
-        <v>1.670025</v>
-      </c>
-      <c r="O19">
-        <v>0.01042327356567948</v>
-      </c>
-      <c r="P19">
-        <v>0.01042327356567948</v>
-      </c>
-      <c r="Q19">
-        <v>0.002396856991666666</v>
-      </c>
-      <c r="R19">
-        <v>0.021571712925</v>
-      </c>
-      <c r="S19">
-        <v>3.679675111265752E-06</v>
-      </c>
-      <c r="T19">
-        <v>3.679675111265751E-06</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.004305666666666666</v>
-      </c>
-      <c r="H20">
-        <v>0.012917</v>
-      </c>
-      <c r="I20">
-        <v>0.0003530249002944479</v>
-      </c>
-      <c r="J20">
-        <v>0.0003530249002944478</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>12.054774</v>
-      </c>
-      <c r="N20">
-        <v>36.164322</v>
-      </c>
-      <c r="O20">
-        <v>0.2257155560685144</v>
-      </c>
-      <c r="P20">
-        <v>0.2257155560685144</v>
-      </c>
-      <c r="Q20">
-        <v>0.05190383858599999</v>
-      </c>
-      <c r="R20">
-        <v>0.4671345472739999</v>
-      </c>
-      <c r="S20">
-        <v>7.968321167599316E-05</v>
-      </c>
-      <c r="T20">
-        <v>7.968321167599314E-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.004305666666666666</v>
-      </c>
-      <c r="H21">
-        <v>0.012917</v>
-      </c>
-      <c r="I21">
-        <v>0.0003530249002944479</v>
-      </c>
-      <c r="J21">
-        <v>0.0003530249002944478</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1.480867666666667</v>
-      </c>
-      <c r="N21">
-        <v>4.442603</v>
-      </c>
-      <c r="O21">
-        <v>0.02772800791168296</v>
-      </c>
-      <c r="P21">
-        <v>0.02772800791168296</v>
-      </c>
-      <c r="Q21">
-        <v>0.00637612255011111</v>
-      </c>
-      <c r="R21">
-        <v>0.05738510295099999</v>
-      </c>
-      <c r="S21">
-        <v>9.788677228385541E-06</v>
-      </c>
-      <c r="T21">
-        <v>9.788677228385538E-06</v>
+        <v>0.0007500644212921113</v>
       </c>
     </row>
   </sheetData>
